--- a/PizzaHTest/src/main/java/com/pizzahut/qa/testdata/PizzaHutTestData.xlsx
+++ b/PizzaHTest/src/main/java/com/pizzahut/qa/testdata/PizzaHutTestData.xlsx
@@ -1,31 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23023"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6215935D-03C1-46B8-8D6E-07FFF58071D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E45E1F41-98FC-49D3-939C-8B4634446DB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="14904" windowHeight="13224" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="address" sheetId="1" r:id="rId1"/>
+    <sheet name="Join" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:M15"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>address1</t>
   </si>
@@ -61,16 +53,69 @@
   </si>
   <si>
     <t>Elk Grove Village</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>confpwd</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>bhakti@abc.com</t>
+  </si>
+  <si>
+    <t>abc123</t>
+  </si>
+  <si>
+    <t>bhakti</t>
+  </si>
+  <si>
+    <t>sheta</t>
+  </si>
+  <si>
+    <t>tom@abc.com</t>
+  </si>
+  <si>
+    <t>xyz123</t>
+  </si>
+  <si>
+    <t>tom</t>
+  </si>
+  <si>
+    <t>tim</t>
+  </si>
+  <si>
+    <t>xyz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,13 +138,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -414,19 +462,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="2" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -460,7 +508,7 @@
         <v>60193</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -480,4 +528,96 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203C772C-4EC5-49DE-AAB1-501A3324E0FF}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <v>630123123</v>
+      </c>
+      <c r="G2">
+        <v>60188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>123456</v>
+      </c>
+      <c r="G3">
+        <v>60178</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{5CAE064C-2F46-4945-9BD5-31B1430C4F9D}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{2E3A5687-F352-4CB2-9236-EE4C2A339F9C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PizzaHTest/src/main/java/com/pizzahut/qa/testdata/PizzaHutTestData.xlsx
+++ b/PizzaHTest/src/main/java/com/pizzahut/qa/testdata/PizzaHutTestData.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E45E1F41-98FC-49D3-939C-8B4634446DB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B6F215F4-86A3-4B0A-BF5B-90C95F4B7302}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="14904" windowHeight="13224" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="108" windowWidth="12252" windowHeight="12252" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="address" sheetId="1" r:id="rId1"/>
     <sheet name="Join" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M15"/>
+  <oleSize ref="A1:P24"/>
 </workbook>
 </file>
 
@@ -535,7 +536,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,4 +621,16 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFF53EC-3332-47A8-8B12-05F451F0293E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>